--- a/Additional_data/General_metabolism.xlsx
+++ b/Additional_data/General_metabolism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03d0ad81bf276083/ThinkPad_working/Sutor/Science/Spongy/Scripts/Sponge_metagenomes_2024/Additional_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\OneDrive\Desktop\Final\Paper\Sponge_metagenomes_2024_Dima_GitHub\Sponge_metagenomes_2024-main\Additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A044CDE1-9DDD-46CC-8779-DB583840F5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B9D8E5-DC61-4EE2-AF40-429A180FFEAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF3898E-9DCA-42C6-A146-82C280107B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D6CA5D53-023D-4676-BA7D-5A9568F790E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6CA5D53-023D-4676-BA7D-5A9568F790E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,9 +42,6 @@
     <t>Ca. Ahtobacter symbioticus (OTU3)</t>
   </si>
   <si>
-    <t>Ca. Gandvikia sitiensis (OTU9)</t>
-  </si>
-  <si>
     <t>Ca. Sampovibrio pertzovi (OTU14)</t>
   </si>
   <si>
@@ -144,13 +136,16 @@
   </si>
   <si>
     <t>Ca. Yagmuria paniceus (OTU23)</t>
+  </si>
+  <si>
+    <t>Ca. Vienanmeria sitiensis (OTU9)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,12 +514,12 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -532,27 +527,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>78</v>
@@ -579,9 +574,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -608,9 +603,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -637,38 +632,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -695,9 +690,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -724,9 +719,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -753,9 +748,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -782,9 +777,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -811,9 +806,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -840,38 +835,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>16</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -898,9 +893,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -927,9 +922,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -956,9 +951,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>73</v>
@@ -985,9 +980,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -1014,9 +1009,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>39</v>
@@ -1043,9 +1038,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -1072,9 +1067,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -1101,9 +1096,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -1130,9 +1125,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1159,38 +1154,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>26</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>27</v>
       </c>
       <c r="B24">
         <v>25</v>
@@ -1217,125 +1212,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>31</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>

--- a/Additional_data/General_metabolism.xlsx
+++ b/Additional_data/General_metabolism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\OneDrive\Desktop\Final\Paper\Sponge_metagenomes_2024_Dima_GitHub\Sponge_metagenomes_2024-main\Additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03d0ad81bf276083/ThinkPad_working/Sutor/Science/Spongy/Scripts/Sponge_metagenomes_2024/Additional_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF3898E-9DCA-42C6-A146-82C280107B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{DFF3898E-9DCA-42C6-A146-82C280107B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84403C43-E7A4-42CD-B6BF-8C18B87D909A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6CA5D53-023D-4676-BA7D-5A9568F790E3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D6CA5D53-023D-4676-BA7D-5A9568F790E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Ca. Halichondribacter symbioticus (OTU4)</t>
   </si>
@@ -105,15 +105,6 @@
     <t>M00377 Reductive acetyl-CoA pathway (Wood-Ljungdahl pathway)</t>
   </si>
   <si>
-    <t>M00176 Assimilatory sulfate reduction</t>
-  </si>
-  <si>
-    <t>M00595 Thiosulfate oxidation by SOX complex</t>
-  </si>
-  <si>
-    <t>M00596 Dissimilatory sulfate reduction</t>
-  </si>
-  <si>
     <t>M00144 NADH:quinone oxidoreductase</t>
   </si>
   <si>
@@ -139,13 +130,28 @@
   </si>
   <si>
     <t>Ca. Vienanmeria sitiensis (OTU9)</t>
+  </si>
+  <si>
+    <t>Reverse DSR</t>
+  </si>
+  <si>
+    <t>SOX</t>
+  </si>
+  <si>
+    <t>fccAB</t>
+  </si>
+  <si>
+    <t>soeABC</t>
+  </si>
+  <si>
+    <t>ASR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,15 +517,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C3E59-B3D4-4408-A8E6-4A5EAC44F2D5}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -527,25 +536,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -603,7 +612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -632,7 +641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -661,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -690,7 +699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -719,7 +728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -748,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -777,7 +786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -806,7 +815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -835,7 +844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -864,7 +873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -893,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -922,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -951,7 +960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -980,7 +989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1125,50 +1134,50 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1177,42 +1186,42 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1229,24 +1238,24 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1261,100 +1270,137 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
